--- a/task1feb2022/temp/Elliott_DN_DWLIS.xlsx
+++ b/task1feb2022/temp/Elliott_DN_DWLIS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aed31\Desktop\reactdoing\data\task1feb2022\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5011C74-89CD-4C97-9EBF-359F459F5E9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A52A0A-F2B5-4487-9EB7-5A06ACFD54F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,13 +25,13 @@
     <t>Site_Code</t>
   </si>
   <si>
-    <t>Collect Date (local)</t>
-  </si>
-  <si>
     <t>Elliott_DN</t>
   </si>
   <si>
-    <t>Water Temperature (degree C)</t>
+    <t>Wtemp_degree_C</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -876,7 +876,7 @@
   <dimension ref="A1:C208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,15 +889,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>42625</v>
@@ -908,7 +908,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>42626</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>42627</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>42628</v>
@@ -941,7 +941,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>42629</v>
@@ -952,7 +952,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>42630</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>42631</v>
@@ -974,7 +974,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>42632</v>
@@ -985,7 +985,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" s="1">
         <v>42633</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="1">
         <v>42634</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B12" s="1">
         <v>42635</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B13" s="1">
         <v>42636</v>
@@ -1029,7 +1029,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="1">
         <v>42637</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1">
         <v>42638</v>
@@ -1051,7 +1051,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
         <v>42639</v>
@@ -1062,7 +1062,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="1">
         <v>42640</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B18" s="1">
         <v>42641</v>
@@ -1084,7 +1084,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B19" s="1">
         <v>42642</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="1">
         <v>42643</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" s="1">
         <v>42644</v>
@@ -1117,7 +1117,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" s="1">
         <v>42645</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" s="1">
         <v>42646</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" s="1">
         <v>42647</v>
@@ -1150,7 +1150,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="1">
         <v>42648</v>
@@ -1161,7 +1161,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="1">
         <v>42649</v>
@@ -1172,7 +1172,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="1">
         <v>42650</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B28" s="1">
         <v>42651</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="1">
         <v>42652</v>
@@ -1205,7 +1205,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="1">
         <v>42653</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="1">
         <v>42654</v>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B32" s="1">
         <v>42655</v>
@@ -1238,7 +1238,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" s="1">
         <v>42656</v>
@@ -1249,7 +1249,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B34" s="1">
         <v>42657</v>
@@ -1260,7 +1260,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B35" s="1">
         <v>42658</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="1">
         <v>42659</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="1">
         <v>42660</v>
@@ -1293,7 +1293,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B38" s="1">
         <v>42661</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B39" s="1">
         <v>42662</v>
@@ -1315,7 +1315,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40" s="1">
         <v>42663</v>
@@ -1326,7 +1326,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B41" s="1">
         <v>42664</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B42" s="1">
         <v>42665</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B43" s="1">
         <v>42666</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B44" s="1">
         <v>42667</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="1">
         <v>42668</v>
@@ -1381,7 +1381,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B46" s="1">
         <v>42669</v>
@@ -1392,7 +1392,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B47" s="1">
         <v>42670</v>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B48" s="1">
         <v>42671</v>
@@ -1414,7 +1414,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B49" s="1">
         <v>42672</v>
@@ -1425,7 +1425,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B50" s="1">
         <v>42673</v>
@@ -1436,7 +1436,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="1">
         <v>42674</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B52" s="1">
         <v>42675</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" s="1">
         <v>42676</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B54" s="1">
         <v>42677</v>
@@ -1480,7 +1480,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B55" s="1">
         <v>42678</v>
@@ -1491,7 +1491,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B56" s="1">
         <v>42679</v>
@@ -1502,7 +1502,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B57" s="1">
         <v>42680</v>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B58" s="1">
         <v>42681</v>
@@ -1524,7 +1524,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B59" s="1">
         <v>42682</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B60" s="1">
         <v>42683</v>
@@ -1546,7 +1546,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="1">
         <v>42684</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B62" s="1">
         <v>42685</v>
@@ -1568,7 +1568,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B63" s="1">
         <v>42686</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" s="1">
         <v>42687</v>
@@ -1590,7 +1590,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B65" s="1">
         <v>42688</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B66" s="1">
         <v>42689</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B67" s="1">
         <v>42690</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B68" s="1">
         <v>42691</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B69" s="1">
         <v>42692</v>
@@ -1645,7 +1645,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B70" s="1">
         <v>42693</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B71" s="1">
         <v>42694</v>
@@ -1667,7 +1667,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B72" s="1">
         <v>42695</v>
@@ -1678,7 +1678,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B73" s="1">
         <v>42696</v>
@@ -1689,7 +1689,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="1">
         <v>42697</v>
@@ -1700,7 +1700,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="1">
         <v>42698</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B76" s="1">
         <v>42699</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B77" s="1">
         <v>42700</v>
@@ -1733,7 +1733,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B78" s="1">
         <v>42701</v>
@@ -1744,7 +1744,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B79" s="1">
         <v>42702</v>
@@ -1755,7 +1755,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B80" s="1">
         <v>42703</v>
@@ -1766,7 +1766,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B81" s="1">
         <v>42704</v>
@@ -1777,7 +1777,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B82" s="1">
         <v>42705</v>
@@ -1788,7 +1788,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="1">
         <v>42706</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" s="1">
         <v>42707</v>
@@ -1810,7 +1810,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1">
         <v>42708</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1">
         <v>42709</v>
@@ -1832,7 +1832,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="1">
         <v>42710</v>
@@ -1843,7 +1843,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B88" s="1">
         <v>42711</v>
@@ -1854,7 +1854,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B89" s="1">
         <v>42712</v>
@@ -1865,7 +1865,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B90" s="1">
         <v>42713</v>
@@ -1876,7 +1876,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B91" s="1">
         <v>42714</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B92" s="1">
         <v>42715</v>
@@ -1898,7 +1898,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B93" s="1">
         <v>42716</v>
@@ -1909,7 +1909,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B94" s="1">
         <v>42717</v>
@@ -1920,7 +1920,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B95" s="1">
         <v>42718</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B96" s="1">
         <v>42719</v>
@@ -1942,7 +1942,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B97" s="1">
         <v>42720</v>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B98" s="1">
         <v>42721</v>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B99" s="1">
         <v>42722</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B100" s="1">
         <v>42723</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B101" s="1">
         <v>42724</v>
@@ -1997,7 +1997,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B102" s="1">
         <v>42725</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B103" s="1">
         <v>42726</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B104" s="1">
         <v>42727</v>
@@ -2030,7 +2030,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B105" s="1">
         <v>42728</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B106" s="1">
         <v>42729</v>
@@ -2052,7 +2052,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B107" s="1">
         <v>42730</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B108" s="1">
         <v>42731</v>
@@ -2074,7 +2074,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B109" s="1">
         <v>42732</v>
@@ -2085,7 +2085,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B110" s="1">
         <v>42733</v>
@@ -2096,7 +2096,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B111" s="1">
         <v>42734</v>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B112" s="1">
         <v>42735</v>
@@ -2118,7 +2118,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B113" s="1">
         <v>42736</v>
@@ -2129,7 +2129,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B114" s="1">
         <v>42737</v>
@@ -2140,7 +2140,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="1">
         <v>42738</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="1">
         <v>42739</v>
@@ -2162,7 +2162,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B117" s="1">
         <v>42740</v>
@@ -2173,7 +2173,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B118" s="1">
         <v>42741</v>
@@ -2184,7 +2184,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B119" s="1">
         <v>42742</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B120" s="1">
         <v>42743</v>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B121" s="1">
         <v>42744</v>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B122" s="1">
         <v>42745</v>
@@ -2228,7 +2228,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B123" s="1">
         <v>42746</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B124" s="1">
         <v>42747</v>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B125" s="1">
         <v>42748</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B126" s="1">
         <v>42749</v>
@@ -2272,7 +2272,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B127" s="1">
         <v>42750</v>
@@ -2283,7 +2283,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B128" s="1">
         <v>42751</v>
@@ -2294,7 +2294,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B129" s="1">
         <v>42752</v>
@@ -2305,7 +2305,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B130" s="1">
         <v>42753</v>
@@ -2316,7 +2316,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B131" s="1">
         <v>42754</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B132" s="1">
         <v>42755</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B133" s="1">
         <v>42756</v>
@@ -2349,7 +2349,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B134" s="1">
         <v>42757</v>
@@ -2360,7 +2360,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B135" s="1">
         <v>42758</v>
@@ -2371,7 +2371,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B136" s="1">
         <v>42759</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B137" s="1">
         <v>42760</v>
@@ -2393,7 +2393,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B138" s="1">
         <v>42761</v>
@@ -2404,7 +2404,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B139" s="1">
         <v>42762</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B140" s="1">
         <v>42763</v>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="1">
         <v>42764</v>
@@ -2437,7 +2437,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B142" s="1">
         <v>42765</v>
@@ -2448,7 +2448,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B143" s="1">
         <v>42766</v>
@@ -2459,7 +2459,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B144" s="1">
         <v>42767</v>
@@ -2470,7 +2470,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" s="1">
         <v>42768</v>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B146" s="1">
         <v>42769</v>
@@ -2492,7 +2492,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B147" s="1">
         <v>42770</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B148" s="1">
         <v>42771</v>
@@ -2514,7 +2514,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B149" s="1">
         <v>42772</v>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" s="1">
         <v>42773</v>
@@ -2536,7 +2536,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B151" s="1">
         <v>42774</v>
@@ -2547,7 +2547,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B152" s="1">
         <v>42775</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B153" s="1">
         <v>42776</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B154" s="1">
         <v>42777</v>
@@ -2580,7 +2580,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B155" s="1">
         <v>42778</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B156" s="1">
         <v>42779</v>
@@ -2602,7 +2602,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B157" s="1">
         <v>42780</v>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B158" s="1">
         <v>42781</v>
@@ -2624,7 +2624,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B159" s="1">
         <v>42782</v>
@@ -2635,7 +2635,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B160" s="1">
         <v>42783</v>
@@ -2646,7 +2646,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B161" s="1">
         <v>42784</v>
@@ -2657,7 +2657,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B162" s="1">
         <v>42785</v>
@@ -2668,7 +2668,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B163" s="1">
         <v>42786</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B164" s="1">
         <v>42787</v>
@@ -2690,7 +2690,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B165" s="1">
         <v>42788</v>
@@ -2701,7 +2701,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B166" s="1">
         <v>42789</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B167" s="1">
         <v>42790</v>
@@ -2723,7 +2723,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B168" s="1">
         <v>42791</v>
@@ -2734,7 +2734,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B169" s="1">
         <v>42792</v>
@@ -2745,7 +2745,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B170" s="1">
         <v>42793</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B171" s="1">
         <v>42794</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B172" s="1">
         <v>42795</v>
@@ -2778,7 +2778,7 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B173" s="1">
         <v>42796</v>
@@ -2789,7 +2789,7 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B174" s="1">
         <v>42797</v>
@@ -2800,7 +2800,7 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B175" s="1">
         <v>42798</v>
@@ -2811,7 +2811,7 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B176" s="1">
         <v>42799</v>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B177" s="1">
         <v>42800</v>
@@ -2833,7 +2833,7 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B178" s="1">
         <v>42801</v>
@@ -2844,7 +2844,7 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B179" s="1">
         <v>42802</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B180" s="1">
         <v>42803</v>
@@ -2866,7 +2866,7 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B181" s="1">
         <v>42804</v>
@@ -2877,7 +2877,7 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B182" s="1">
         <v>42805</v>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B183" s="1">
         <v>42806</v>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B184" s="1">
         <v>42807</v>
@@ -2910,7 +2910,7 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B185" s="1">
         <v>42808</v>
@@ -2921,7 +2921,7 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B186" s="1">
         <v>42809</v>
@@ -2932,7 +2932,7 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B187" s="1">
         <v>42810</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B188" s="1">
         <v>42811</v>
@@ -2954,7 +2954,7 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B189" s="1">
         <v>42812</v>
@@ -2965,7 +2965,7 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B190" s="1">
         <v>42813</v>
@@ -2976,7 +2976,7 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B191" s="1">
         <v>42814</v>
@@ -2987,7 +2987,7 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B192" s="1">
         <v>42815</v>
@@ -2998,7 +2998,7 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B193" s="1">
         <v>42816</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B194" s="1">
         <v>42817</v>
@@ -3020,7 +3020,7 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B195" s="1">
         <v>42818</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B196" s="1">
         <v>42819</v>
@@ -3042,7 +3042,7 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B197" s="1">
         <v>42820</v>
@@ -3053,7 +3053,7 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B198" s="1">
         <v>42821</v>
@@ -3064,7 +3064,7 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B199" s="1">
         <v>42822</v>
@@ -3075,7 +3075,7 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B200" s="1">
         <v>42823</v>
@@ -3086,7 +3086,7 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B201" s="1">
         <v>42824</v>
@@ -3097,7 +3097,7 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B202" s="1">
         <v>42825</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B203" s="1">
         <v>42826</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B204" s="1">
         <v>42827</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B205" s="1">
         <v>42828</v>
@@ -3141,7 +3141,7 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B206" s="1">
         <v>42829</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B207" s="1">
         <v>42830</v>
@@ -3163,7 +3163,7 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B208" s="1">
         <v>42831</v>
